--- a/public/emp.xlsx
+++ b/public/emp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>VAIX CO., LTD</t>
   </si>
@@ -83,7 +83,13 @@
     <t>合計（円）</t>
   </si>
   <si>
+    <t>item name 2</t>
+  </si>
+  <si>
     <t>item 23</t>
+  </si>
+  <si>
+    <t>以上</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -189,6 +195,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="1" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -490,10 +499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C18" sqref="C18:J18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,52 +614,66 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2300.0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2300.0</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1500.0</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2300.0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2300.0</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -677,6 +700,36 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -690,10 +743,13 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="E15:J15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
